--- a/input/OilManagement.xlsx
+++ b/input/OilManagement.xlsx
@@ -19,16 +19,25 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">OIL MANAGEMENT</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -45,16 +54,79 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF5983B0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD8CE"/>
+        <bgColor rgb="FFDDE8CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFFFD8CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB66C"/>
+        <bgColor rgb="FFFFA6A6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5983B0"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBE33D"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA6A6"/>
+        <bgColor rgb="FFFFB66C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -62,6 +134,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -88,9 +167,45 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -102,6 +217,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF729FCF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDDE8CB"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFFA6A6"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFD8CE"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FFBBE33D"/>
+      <rgbColor rgb="FFFFB66C"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF5983B0"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -110,14 +285,172 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="1" width="11.54"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>15573</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>13913</v>
+      </c>
+      <c r="H5" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>39327</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>2697</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>2860</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>3562</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>8760</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>50.25</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>4520</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>56.75</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>6367</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>5927</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>3472</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>3751</v>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v>16976</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>16976</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/input/OilManagement.xlsx
+++ b/input/OilManagement.xlsx
@@ -20,7 +20,106 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+  <si>
+    <t xml:space="preserve">Col 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Col 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Col 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Col 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Col 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Col 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Col 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Existing SP? 0(No) || 1(Yes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n*: Number of Properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2*...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Pn*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W1*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W2*...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Wn*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m:The number of NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n: Number of properties each strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W2...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Wn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of Player 1's Strategies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategy 1-props 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategy 1-props 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Strategy 1-props n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategy 2 props 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategy 2-props 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Strategy 2-props n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of Player 2's Strategies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of Player m's Strategies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conflict set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategy Pairs*: PlayerNo, StratNo, PLayerNo Strat No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategy Pairs*</t>
+  </si>
   <si>
     <t xml:space="preserve">OIL MANAGEMENT</t>
   </si>
@@ -32,7 +131,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -62,6 +161,31 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <i val="true"/>
       <sz val="12"/>
@@ -70,29 +194,65 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FFFFD8CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFE2EFDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FFDDE8CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DB"/>
+        <bgColor rgb="FF729FCF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF729FCF"/>
-        <bgColor rgb="FF5983B0"/>
+        <bgColor rgb="FF8EA9DB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD8CE"/>
-        <bgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFFCE4D6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDE8CB"/>
-        <bgColor rgb="FFFFD8CE"/>
+        <bgColor rgb="FFE2EFDA"/>
       </patternFill>
     </fill>
     <fill>
@@ -103,12 +263,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF5983B0"/>
         <bgColor rgb="FF808080"/>
       </patternFill>
@@ -126,11 +280,95 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
@@ -167,7 +405,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -176,35 +414,179 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -235,12 +617,12 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF729FCF"/>
+      <rgbColor rgb="FF8EA9DB"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFFCE4D6"/>
+      <rgbColor rgb="FFDDE8CB"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFFB66C"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -253,7 +635,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFDDE8CB"/>
+      <rgbColor rgb="FFE2EFDA"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFFA6A6"/>
@@ -262,11 +644,11 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FFBBE33D"/>
-      <rgbColor rgb="FFFFB66C"/>
+      <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF5983B0"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -285,170 +667,534 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="27.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="11.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="0"/>
       <c r="I1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B16" s="39" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="40" t="n">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B17" s="40" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="40" t="n">
         <v>36.74</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B18" s="40" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B19" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C19" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D19" s="43" t="n">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E19" s="43" t="n">
         <v>15573</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F19" s="44" t="n">
         <v>12</v>
       </c>
-      <c r="G5" s="8" t="n">
+      <c r="G19" s="44" t="n">
         <v>13913</v>
       </c>
-      <c r="H5" s="9" t="n">
+      <c r="H19" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="I5" s="9" t="n">
+      <c r="I19" s="45" t="n">
         <v>39327</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B20" s="42" t="n">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C20" s="42" t="n">
         <v>2697</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D20" s="43" t="n">
         <v>14</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E20" s="43" t="n">
         <v>2860</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F20" s="44" t="n">
         <v>17</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G20" s="44" t="n">
         <v>3562</v>
       </c>
-      <c r="H6" s="9" t="n">
+      <c r="H20" s="45" t="n">
         <v>17</v>
       </c>
-      <c r="I6" s="9" t="n">
+      <c r="I20" s="45" t="n">
         <v>3760</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="n">
+      <c r="B21" s="42" t="n">
         <v>59</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C21" s="42" t="n">
         <v>8760</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D21" s="43" t="n">
         <v>50.25</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E21" s="43" t="n">
         <v>4520</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F21" s="44" t="n">
         <v>56.75</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G21" s="44" t="n">
         <v>6367</v>
       </c>
-      <c r="H7" s="9" t="n">
+      <c r="H21" s="45" t="n">
         <v>54.6</v>
       </c>
-      <c r="I7" s="9" t="n">
+      <c r="I21" s="45" t="n">
         <v>5927</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="n">
+      <c r="B22" s="42" t="n">
         <v>9</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C22" s="42" t="n">
         <v>3472</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D22" s="43" t="n">
         <v>9</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E22" s="43" t="n">
         <v>3751</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F22" s="44" t="n">
         <v>9</v>
       </c>
-      <c r="G8" s="8" t="n">
+      <c r="G22" s="44" t="n">
         <v>16976</v>
       </c>
-      <c r="H8" s="9" t="n">
+      <c r="H22" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="I8" s="9" t="n">
+      <c r="I22" s="45" t="n">
         <v>16976</v>
       </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0"/>
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0"/>
+      <c r="H23" s="0"/>
+      <c r="I23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0"/>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0"/>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0"/>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0"/>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0"/>
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0"/>
+      <c r="I28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0"/>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0"/>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/input/OilManagement.xlsx
+++ b/input/OilManagement.xlsx
@@ -165,12 +165,14 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -184,6 +186,7 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -670,19 +673,21 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="39.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="27.09"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
